--- a/src/test/java/com/nablarch/example/app/web/action/ClientActionTest.xlsx
+++ b/src/test/java/com/nablarch/example/app/web/action/ClientActionTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PJ\01.Nablarch\repo\Nablarch\Examples\nablarch-example-web\src\test\java\com\nablarch\example\app\web\action\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F96B93-E354-499D-8F71-F3B84A0E4ED3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971E5F49-A5B4-41D6-91C4-1A7256CEB78C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="367">
   <si>
     <r>
       <t>//DB</t>
@@ -1137,12 +1137,74 @@
   <si>
     <t>その他のサービス業</t>
   </si>
+  <si>
+    <t>SETUP_TABLE=PROJECT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
+    <t>PROJECT_NAME</t>
+  </si>
+  <si>
+    <t>PROJECT_TYPE</t>
+  </si>
+  <si>
+    <t>PROJECT_CLASS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PROJECT_START_DATE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PROJECT_END_DATE</t>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>PROJECT_MANAGER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PROJECT_LEADER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NOTE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SALES</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>COST_OF_GOODS_SOLD</t>
+  </si>
+  <si>
+    <t>SGA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ALLOCATION_OF_CORP_EXPENSES</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="メイリオ"/>
@@ -1159,11 +1221,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="17"/>
@@ -1225,19 +1282,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1645,7 +1710,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J221"/>
+  <dimension ref="A1:P224"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="10" workbookViewId="0"/>
   </sheetViews>
@@ -1661,7 +1726,7 @@
     <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1675,923 +1740,966 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="9" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B101" s="2" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C104" s="8" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>37</v>
@@ -2599,10 +2707,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>37</v>
@@ -2610,10 +2718,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>37</v>
@@ -2621,10 +2729,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
@@ -2632,10 +2740,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>37</v>
@@ -2643,10 +2751,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>37</v>
@@ -2654,10 +2762,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>37</v>
@@ -2665,10 +2773,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>37</v>
@@ -2676,10 +2784,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>37</v>
@@ -2687,10 +2795,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>37</v>
@@ -2698,10 +2806,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>37</v>
@@ -2709,10 +2817,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>37</v>
@@ -2720,10 +2828,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>37</v>
@@ -2731,10 +2839,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>37</v>
@@ -2742,10 +2850,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>37</v>
@@ -2753,10 +2861,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>37</v>
@@ -2764,10 +2872,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>37</v>
@@ -2775,10 +2883,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>37</v>
@@ -2786,10 +2894,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>37</v>
@@ -2797,10 +2905,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>37</v>
@@ -2808,10 +2916,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>37</v>
@@ -2819,10 +2927,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>37</v>
@@ -2830,10 +2938,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>37</v>
@@ -2841,10 +2949,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>37</v>
@@ -2852,10 +2960,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>37</v>
@@ -2863,10 +2971,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>37</v>
@@ -2874,10 +2982,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>37</v>
@@ -2885,10 +2993,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>37</v>
@@ -2896,10 +3004,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>37</v>
@@ -2907,10 +3015,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>37</v>
@@ -2918,10 +3026,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>37</v>
@@ -2929,10 +3037,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>37</v>
@@ -2940,10 +3048,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>37</v>
@@ -2951,10 +3059,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>37</v>
@@ -2962,10 +3070,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>37</v>
@@ -2973,10 +3081,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>37</v>
@@ -2984,10 +3092,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>37</v>
@@ -2995,10 +3103,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>37</v>
@@ -3006,10 +3114,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>37</v>
@@ -3017,10 +3125,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>37</v>
@@ -3028,10 +3136,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>37</v>
@@ -3039,10 +3147,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>37</v>
@@ -3050,10 +3158,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>37</v>
@@ -3061,10 +3169,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>37</v>
@@ -3072,10 +3180,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>37</v>
@@ -3083,10 +3191,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>37</v>
@@ -3094,10 +3202,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>37</v>
@@ -3105,43 +3213,43 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>103</v>
@@ -3149,10 +3257,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>103</v>
@@ -3160,10 +3268,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>103</v>
@@ -3171,10 +3279,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>103</v>
@@ -3182,10 +3290,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>103</v>
@@ -3193,10 +3301,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>103</v>
@@ -3204,10 +3312,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>103</v>
@@ -3215,10 +3323,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>103</v>
@@ -3226,10 +3334,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>103</v>
@@ -3237,10 +3345,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>103</v>
@@ -3248,10 +3356,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>103</v>
@@ -3259,10 +3367,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>103</v>
@@ -3270,10 +3378,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>103</v>
@@ -3281,10 +3389,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>103</v>
@@ -3292,10 +3400,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>103</v>
@@ -3303,10 +3411,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>103</v>
@@ -3314,10 +3422,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>103</v>
@@ -3325,10 +3433,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>103</v>
@@ -3336,10 +3444,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>103</v>
@@ -3347,10 +3455,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>103</v>
@@ -3358,10 +3466,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>103</v>
@@ -3369,10 +3477,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>103</v>
@@ -3380,10 +3488,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>103</v>
@@ -3391,10 +3499,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>103</v>
@@ -3402,10 +3510,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>103</v>
@@ -3413,10 +3521,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>103</v>
@@ -3424,10 +3532,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>103</v>
@@ -3435,10 +3543,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>103</v>
@@ -3446,10 +3554,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>103</v>
@@ -3457,10 +3565,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>103</v>
@@ -3468,10 +3576,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>103</v>
@@ -3479,10 +3587,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>103</v>
@@ -3490,10 +3598,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>103</v>
@@ -3501,10 +3609,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>103</v>
@@ -3512,10 +3620,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>103</v>
@@ -3523,10 +3631,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>103</v>
@@ -3534,10 +3642,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>103</v>
@@ -3545,10 +3653,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>103</v>
@@ -3556,10 +3664,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>103</v>
@@ -3567,10 +3675,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>103</v>
@@ -3578,10 +3686,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>103</v>
@@ -3589,10 +3697,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>103</v>
@@ -3600,10 +3708,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>103</v>
@@ -3611,10 +3719,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>103</v>
@@ -3622,10 +3730,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>103</v>
@@ -3633,10 +3741,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>103</v>
@@ -3644,10 +3752,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>103</v>
@@ -3655,10 +3763,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>103</v>
@@ -3666,10 +3774,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>103</v>
@@ -3677,10 +3785,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>103</v>
@@ -3688,10 +3796,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>103</v>
@@ -3699,10 +3807,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>103</v>
@@ -3710,10 +3818,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>103</v>
@@ -3721,10 +3829,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>103</v>
@@ -3732,10 +3840,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>103</v>
@@ -3743,10 +3851,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>103</v>
@@ -3754,10 +3862,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>103</v>
@@ -3765,12 +3873,45 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B224" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>103</v>
       </c>
     </row>
